--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37704.03644255496</v>
+        <v>58407.44660631439</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14367056.96599128</v>
+        <v>14838251.49641704</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21518891.78964768</v>
+        <v>21450683.94537132</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3470798.012794789</v>
+        <v>3468737.231838967</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K11" t="n">
-        <v>63.05236715997609</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L11" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M11" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N11" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P11" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,13 +8768,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K12" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L12" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8848,25 +8850,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L13" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M13" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N13" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O13" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P13" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K14" t="n">
-        <v>63.05236715997607</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L14" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M14" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N14" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P14" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>57.04881769811645</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K15" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L15" t="n">
-        <v>6.843835446033836</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9085,25 +9087,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>57.39223570718323</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L16" t="n">
-        <v>48.89840262068249</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M16" t="n">
-        <v>48.88241359345379</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N16" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O16" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P16" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K17" t="n">
-        <v>63.05236715997609</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L17" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M17" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N17" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P17" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,13 +9242,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K18" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L18" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9322,25 +9324,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L19" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M19" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N19" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O19" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P19" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K20" t="n">
-        <v>63.05236715997609</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L20" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M20" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N20" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P20" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q20" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,13 +9479,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K21" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L21" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9559,25 +9561,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L22" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M22" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N22" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O22" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P22" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K23" t="n">
-        <v>63.05236715997609</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L23" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M23" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N23" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P23" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q23" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,13 +9716,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K24" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L24" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9796,25 +9798,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L25" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M25" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N25" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O25" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P25" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K26" t="n">
-        <v>63.05236715997609</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L26" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M26" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N26" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P26" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q26" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9951,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K27" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L27" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10033,25 +10035,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L28" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M28" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N28" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O28" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P28" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K29" t="n">
-        <v>63.05236715997609</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L29" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M29" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N29" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P29" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q29" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,13 +10190,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K30" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L30" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10270,25 +10272,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L31" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M31" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N31" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O31" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P31" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K32" t="n">
-        <v>63.05236715997609</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L32" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M32" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N32" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P32" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q32" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10425,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K33" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L33" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10507,25 +10509,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L34" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M34" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N34" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O34" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P34" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K35" t="n">
-        <v>63.05236715997609</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L35" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M35" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N35" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P35" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q35" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,13 +10664,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K36" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L36" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10744,25 +10746,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L37" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M37" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N37" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O37" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P37" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K38" t="n">
-        <v>63.05236715997609</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L38" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M38" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N38" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P38" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q38" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,13 +10901,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K39" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L39" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -10981,25 +10983,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L40" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M40" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N40" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O40" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P40" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>69.85452685770001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K41" t="n">
-        <v>63.05236715997609</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L41" t="n">
-        <v>47.93650005528406</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M41" t="n">
-        <v>27.34726145054154</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N41" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>33.60986879248847</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P41" t="n">
-        <v>57.00046077400765</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q41" t="n">
-        <v>82.34068594611185</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>57.04881769811646</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K42" t="n">
-        <v>33.3632987864562</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L42" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>15.86678416430672</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.57556248148847</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11218,25 +11220,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>57.39223570718324</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L43" t="n">
-        <v>48.8984026206825</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M43" t="n">
-        <v>48.8824135934538</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N43" t="n">
-        <v>41.27137198649253</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O43" t="n">
-        <v>54.79188769724385</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P43" t="n">
-        <v>62.52822000776997</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.9458458910769</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.85452685770001</v>
+        <v>56.67388359071279</v>
       </c>
       <c r="K44" t="n">
-        <v>63.05236715997609</v>
+        <v>43.29799963205343</v>
       </c>
       <c r="L44" t="n">
-        <v>47.93650005528406</v>
+        <v>23.42946033622977</v>
       </c>
       <c r="M44" t="n">
-        <v>27.34726145054154</v>
+        <v>0.07845776207048516</v>
       </c>
       <c r="N44" t="n">
-        <v>24.00318357209721</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>33.60986879248847</v>
+        <v>7.444062424199188</v>
       </c>
       <c r="P44" t="n">
-        <v>57.00046077400765</v>
+        <v>34.66855040599816</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.34068594611185</v>
+        <v>65.57035129496393</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>57.04881769811646</v>
+        <v>49.19851686474489</v>
       </c>
       <c r="K45" t="n">
-        <v>33.3632987864562</v>
+        <v>19.94588428470415</v>
       </c>
       <c r="L45" t="n">
-        <v>6.84383544603385</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>15.86678416430672</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.57556248148847</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,25 +11457,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>57.39223570718324</v>
+        <v>49.29890432238841</v>
       </c>
       <c r="L46" t="n">
-        <v>48.8984026206825</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M46" t="n">
-        <v>48.8824135934538</v>
+        <v>37.96274903414103</v>
       </c>
       <c r="N46" t="n">
-        <v>41.27137198649253</v>
+        <v>30.61135264374985</v>
       </c>
       <c r="O46" t="n">
-        <v>54.79188769724385</v>
+        <v>44.94563446009283</v>
       </c>
       <c r="P46" t="n">
-        <v>62.52822000776997</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.9458458910769</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H11" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I11" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S11" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23349,13 +23351,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H12" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I12" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S12" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T12" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23428,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H13" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I13" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J13" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S13" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T13" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23507,13 +23509,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H14" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I14" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S14" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23586,13 +23588,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H15" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I15" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S15" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T15" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23665,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H16" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I16" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J16" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S16" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T16" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23744,13 +23746,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H17" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I17" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S17" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23823,13 +23825,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H18" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I18" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S18" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T18" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23902,16 +23904,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H19" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I19" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J19" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S19" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T19" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23981,13 +23983,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H20" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I20" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S20" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24060,13 +24062,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H21" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I21" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S21" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T21" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24139,16 +24141,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H22" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I22" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J22" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S22" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T22" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24218,13 +24220,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H23" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I23" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S23" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24297,13 +24299,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H24" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I24" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S24" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T24" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24376,16 +24378,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H25" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I25" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J25" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S25" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T25" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24455,13 +24457,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H26" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I26" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S26" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24534,13 +24536,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H27" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I27" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S27" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T27" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24613,16 +24615,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H28" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I28" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J28" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S28" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T28" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24692,13 +24694,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H29" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I29" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S29" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24771,13 +24773,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H30" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I30" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S30" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T30" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24850,16 +24852,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H31" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I31" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J31" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S31" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T31" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24929,13 +24931,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H32" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I32" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S32" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25008,13 +25010,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H33" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I33" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S33" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T33" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25087,16 +25089,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H34" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I34" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J34" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S34" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25166,13 +25168,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H35" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I35" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S35" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25245,13 +25247,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H36" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I36" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S36" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T36" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25324,16 +25326,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H37" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I37" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J37" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S37" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T37" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25403,13 +25405,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H38" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I38" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S38" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25482,13 +25484,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H39" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I39" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S39" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T39" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25561,16 +25563,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H40" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I40" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J40" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S40" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T40" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25640,13 +25642,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H41" t="n">
-        <v>320.1722984400315</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I41" t="n">
-        <v>136.0016376675592</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>32.56159800918574</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S41" t="n">
-        <v>164.6173333059695</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1313078875085</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2636733483879</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25719,13 +25721,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H42" t="n">
-        <v>94.23549980450369</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I42" t="n">
-        <v>50.93261970798304</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>28.95237908825671</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S42" t="n">
-        <v>142.22648013759</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T42" t="n">
-        <v>184.8354745171779</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25798,16 +25800,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.822302787362</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H43" t="n">
-        <v>154.1492197268807</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I43" t="n">
-        <v>130.4838724096476</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J43" t="n">
-        <v>30.59350725638981</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>129.6702328356279</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S43" t="n">
-        <v>204.4580094868928</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T43" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2960690235111</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25877,13 +25879,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0328269958786</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H44" t="n">
-        <v>320.1722984400315</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I44" t="n">
-        <v>136.0016376675592</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>32.56159800918574</v>
+        <v>22.80641949262572</v>
       </c>
       <c r="S44" t="n">
-        <v>164.6173333059695</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1313078875085</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2636733483879</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,13 +25958,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.9542580155802</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H45" t="n">
-        <v>94.23549980450369</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I45" t="n">
-        <v>50.93261970798304</v>
+        <v>48.07180258983779</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>28.95237908825671</v>
+        <v>23.79343295775172</v>
       </c>
       <c r="S45" t="n">
-        <v>142.22648013759</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T45" t="n">
-        <v>184.8354745171779</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2778078354777</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.822302787362</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H46" t="n">
-        <v>154.1492197268807</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I46" t="n">
-        <v>130.4838724096476</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J46" t="n">
-        <v>30.59350725638981</v>
+        <v>25.66848079476623</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.966734934351265</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>129.6702328356279</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S46" t="n">
-        <v>204.4580094868928</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T46" t="n">
-        <v>229.1028297572121</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2960690235111</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>298885.4723952506</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>298885.4723952506</v>
+        <v>298661.9895570512</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>54446.98812710022</v>
       </c>
       <c r="E2" t="n">
-        <v>59058.35775706609</v>
+        <v>59732.13272365865</v>
       </c>
       <c r="F2" t="n">
-        <v>59058.3577570661</v>
+        <v>59732.13272365865</v>
       </c>
       <c r="G2" t="n">
-        <v>59058.35775706611</v>
+        <v>59732.13272365864</v>
       </c>
       <c r="H2" t="n">
-        <v>59058.3577570661</v>
+        <v>59732.13272365865</v>
       </c>
       <c r="I2" t="n">
-        <v>59058.3577570661</v>
+        <v>59732.13272365864</v>
       </c>
       <c r="J2" t="n">
-        <v>59058.3577570661</v>
+        <v>59732.13272365865</v>
       </c>
       <c r="K2" t="n">
-        <v>59058.3577570661</v>
+        <v>59732.13272365864</v>
       </c>
       <c r="L2" t="n">
-        <v>59058.3577570661</v>
+        <v>59732.13272365866</v>
       </c>
       <c r="M2" t="n">
-        <v>59058.35775706611</v>
+        <v>59732.13272365865</v>
       </c>
       <c r="N2" t="n">
-        <v>59058.35775706611</v>
+        <v>59732.13272365865</v>
       </c>
       <c r="O2" t="n">
-        <v>59058.35775706611</v>
+        <v>59732.13272365865</v>
       </c>
       <c r="P2" t="n">
-        <v>59058.3577570661</v>
+        <v>59831.77443771367</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>181884.2301105374</v>
+        <v>208768.0777040487</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3439.479431522153</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>40835.24109532517</v>
       </c>
       <c r="E4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="F4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.66648364413</v>
       </c>
       <c r="G4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="H4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.66648364413</v>
       </c>
       <c r="I4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="J4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.66648364413</v>
       </c>
       <c r="K4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="L4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="M4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="N4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="O4" t="n">
-        <v>13436.74323609785</v>
+        <v>9941.666483644129</v>
       </c>
       <c r="P4" t="n">
-        <v>13436.74323609785</v>
+        <v>9475.079774768723</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="F5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="G5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="H5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="I5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="J5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="K5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="L5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="M5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="N5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="O5" t="n">
-        <v>4935.351518988249</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="P5" t="n">
-        <v>4935.351518988249</v>
+        <v>5777.488614097808</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-20015.85296822494</v>
       </c>
       <c r="E6" t="n">
-        <v>-141197.9671085575</v>
+        <v>-164642.4447966807</v>
       </c>
       <c r="F6" t="n">
-        <v>40686.26300198</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="G6" t="n">
-        <v>40686.26300198001</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="H6" t="n">
-        <v>40686.26300198</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="I6" t="n">
-        <v>40686.26300198</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="J6" t="n">
-        <v>40686.26300198</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="K6" t="n">
-        <v>40686.26300198</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="L6" t="n">
-        <v>40686.26300198</v>
+        <v>44125.63290736795</v>
       </c>
       <c r="M6" t="n">
-        <v>40686.26300198001</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="N6" t="n">
-        <v>40686.26300198001</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="O6" t="n">
-        <v>40686.26300198001</v>
+        <v>44125.63290736794</v>
       </c>
       <c r="P6" t="n">
-        <v>40686.26300198</v>
+        <v>41139.72661732499</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="F3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="G3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="H3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="I3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="J3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="K3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="L3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="M3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="N3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="O3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="P3" t="n">
-        <v>226.3922715132224</v>
+        <v>265.0224134907251</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>226.3922715132224</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.167673461065533</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H11" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I11" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J11" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K11" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L11" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M11" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N11" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P11" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R11" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S11" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T11" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H12" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I12" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J12" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K12" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L12" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M12" t="n">
         <v>115.4839025616399</v>
@@ -31856,22 +31858,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q12" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R12" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S12" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T12" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H13" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I13" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J13" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K13" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L13" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M13" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N13" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O13" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P13" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R13" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S13" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T13" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H14" t="n">
-        <v>9.320763218632315</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I14" t="n">
-        <v>35.08738913573271</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J14" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K14" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L14" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M14" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N14" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P14" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R14" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S14" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T14" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H15" t="n">
-        <v>4.702979074265245</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I15" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J15" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K15" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L15" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
         <v>115.4839025616399</v>
@@ -32093,22 +32095,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R15" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S15" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T15" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4082483584664667</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H16" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I16" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J16" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K16" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L16" t="n">
-        <v>60.69539685782361</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M16" t="n">
-        <v>63.99478586397531</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N16" t="n">
-        <v>62.47313289150944</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O16" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P16" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R16" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S16" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T16" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H17" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I17" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J17" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K17" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L17" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M17" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N17" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P17" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R17" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S17" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T17" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H18" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I18" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J18" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K18" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L18" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M18" t="n">
         <v>115.4839025616399</v>
@@ -32330,22 +32332,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q18" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R18" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S18" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T18" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H19" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I19" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J19" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K19" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L19" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M19" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N19" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O19" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P19" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R19" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S19" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T19" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H20" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I20" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J20" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K20" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L20" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M20" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N20" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P20" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R20" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S20" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T20" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H21" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I21" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J21" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K21" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L21" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
         <v>115.4839025616399</v>
@@ -32567,22 +32569,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q21" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R21" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S21" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T21" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H22" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I22" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J22" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K22" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L22" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M22" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N22" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O22" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P22" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R22" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S22" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T22" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H23" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I23" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J23" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K23" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L23" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M23" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N23" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P23" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R23" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S23" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T23" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H24" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I24" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J24" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K24" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L24" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
         <v>115.4839025616399</v>
@@ -32804,22 +32806,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q24" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R24" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S24" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T24" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H25" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I25" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J25" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K25" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L25" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M25" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N25" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O25" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P25" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R25" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S25" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T25" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H26" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I26" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J26" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K26" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L26" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M26" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N26" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P26" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R26" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S26" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T26" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H27" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I27" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J27" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K27" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L27" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
         <v>115.4839025616399</v>
@@ -33041,22 +33043,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q27" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R27" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S27" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T27" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H28" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I28" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J28" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K28" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L28" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M28" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N28" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O28" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P28" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R28" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S28" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T28" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H29" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I29" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J29" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K29" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L29" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M29" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N29" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P29" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q29" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R29" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S29" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T29" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H30" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I30" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J30" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K30" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L30" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
         <v>115.4839025616399</v>
@@ -33278,22 +33280,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q30" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R30" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S30" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T30" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H31" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I31" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J31" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K31" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L31" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M31" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N31" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O31" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P31" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q31" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R31" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S31" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T31" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H32" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I32" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J32" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K32" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L32" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M32" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N32" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P32" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R32" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S32" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T32" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H33" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I33" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J33" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K33" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L33" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
         <v>115.4839025616399</v>
@@ -33515,22 +33517,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q33" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R33" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S33" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T33" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H34" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I34" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J34" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K34" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L34" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M34" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N34" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O34" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P34" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q34" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R34" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S34" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T34" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H35" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I35" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J35" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K35" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L35" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M35" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N35" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P35" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R35" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S35" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T35" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H36" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I36" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J36" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K36" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L36" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
         <v>115.4839025616399</v>
@@ -33752,22 +33754,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q36" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R36" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S36" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T36" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H37" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I37" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J37" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K37" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L37" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M37" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N37" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O37" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P37" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q37" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R37" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S37" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T37" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H38" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I38" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J38" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K38" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L38" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M38" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N38" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P38" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R38" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S38" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T38" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H39" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I39" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J39" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K39" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L39" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
         <v>115.4839025616399</v>
@@ -33989,22 +33991,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q39" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R39" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S39" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T39" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H40" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I40" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J40" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K40" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L40" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M40" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N40" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O40" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P40" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q40" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R40" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S40" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T40" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H41" t="n">
-        <v>9.320763218632313</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I41" t="n">
-        <v>35.0873891357327</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J41" t="n">
-        <v>77.24527057023262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K41" t="n">
-        <v>115.7706368140706</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L41" t="n">
-        <v>143.6237121078306</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M41" t="n">
-        <v>159.8090530466175</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N41" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>153.344927987632</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P41" t="n">
-        <v>130.8763482771488</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.28268707687837</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R41" t="n">
-        <v>57.17030562991944</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S41" t="n">
-        <v>20.73935230998013</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T41" t="n">
-        <v>3.984048918790476</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H42" t="n">
-        <v>4.702979074265244</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I42" t="n">
-        <v>16.76584274885657</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J42" t="n">
-        <v>46.00675396855024</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K42" t="n">
-        <v>78.63287038021048</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L42" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
         <v>115.4839025616399</v>
@@ -34226,22 +34228,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>92.9874218598366</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q42" t="n">
-        <v>62.15962896340402</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R42" t="n">
-        <v>30.23404712774696</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S42" t="n">
-        <v>9.045011979797135</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T42" t="n">
-        <v>1.962778278496711</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H43" t="n">
-        <v>3.629699041638224</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I43" t="n">
-        <v>12.27714154370065</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J43" t="n">
-        <v>28.86315894357919</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K43" t="n">
-        <v>47.43103655637675</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L43" t="n">
-        <v>60.6953968578236</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M43" t="n">
-        <v>63.9947858639753</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N43" t="n">
-        <v>62.47313289150943</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O43" t="n">
-        <v>57.70404979487842</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P43" t="n">
-        <v>49.37578328216245</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q43" t="n">
-        <v>34.18523299849659</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R43" t="n">
-        <v>18.35633073613767</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S43" t="n">
-        <v>7.114655483456511</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T43" t="n">
-        <v>1.744333895265811</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9101196844752654</v>
+        <v>1.065416737651155</v>
       </c>
       <c r="H44" t="n">
-        <v>9.320763218632313</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I44" t="n">
-        <v>35.0873891357327</v>
+        <v>41.07447877829621</v>
       </c>
       <c r="J44" t="n">
-        <v>77.24527057023262</v>
+        <v>90.42591383721984</v>
       </c>
       <c r="K44" t="n">
-        <v>115.7706368140706</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L44" t="n">
-        <v>143.6237121078306</v>
+        <v>168.1307518268848</v>
       </c>
       <c r="M44" t="n">
-        <v>159.8090530466175</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N44" t="n">
-        <v>162.3949306001329</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>153.344927987632</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P44" t="n">
-        <v>130.8763482771488</v>
+        <v>153.2082586451583</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.28268707687837</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R44" t="n">
-        <v>57.17030562991944</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S44" t="n">
-        <v>20.73935230998013</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T44" t="n">
-        <v>3.984048918790476</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07280957475802122</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4869569613680633</v>
+        <v>0.5700482101498616</v>
       </c>
       <c r="H45" t="n">
-        <v>4.702979074265244</v>
+        <v>5.505465608552612</v>
       </c>
       <c r="I45" t="n">
-        <v>16.76584274885657</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J45" t="n">
-        <v>46.00675396855024</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K45" t="n">
-        <v>78.63287038021048</v>
+        <v>92.05028488196253</v>
       </c>
       <c r="L45" t="n">
-        <v>105.7315981251139</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
         <v>115.4839025616399</v>
@@ -34463,22 +34465,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>92.9874218598366</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>62.15962896340402</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R45" t="n">
-        <v>30.23404712774696</v>
+        <v>35.39299325825195</v>
       </c>
       <c r="S45" t="n">
-        <v>9.045011979797135</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T45" t="n">
-        <v>1.962778278496711</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03203664219526734</v>
+        <v>0.03750317172038565</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4082483584664666</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H46" t="n">
-        <v>3.629699041638224</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I46" t="n">
-        <v>12.27714154370065</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J46" t="n">
-        <v>28.86315894357919</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K46" t="n">
-        <v>47.43103655637675</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L46" t="n">
-        <v>60.6953968578236</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M46" t="n">
-        <v>63.9947858639753</v>
+        <v>74.91445042328807</v>
       </c>
       <c r="N46" t="n">
-        <v>62.47313289150943</v>
+        <v>73.13315223425211</v>
       </c>
       <c r="O46" t="n">
-        <v>57.70404979487842</v>
+        <v>67.55030303202943</v>
       </c>
       <c r="P46" t="n">
-        <v>49.37578328216245</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.18523299849659</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R46" t="n">
-        <v>18.35633073613767</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S46" t="n">
-        <v>7.114655483456511</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T46" t="n">
-        <v>1.744333895265811</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02226809227998911</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58407.44660631439</v>
+        <v>-62135.78169743226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14838251.49641704</v>
+        <v>14833067.19965176</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21450683.94537132</v>
+        <v>21451514.29298845</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3468737.231838967</v>
+        <v>3468728.561103116</v>
       </c>
     </row>
     <row r="11">
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>58.43709896927</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K11" t="n">
-        <v>45.94060241807557</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L11" t="n">
         <v>26.70784276721304</v>
@@ -8768,7 +8768,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>50.24867586497896</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K12" t="n">
         <v>21.74077328296876</v>
@@ -8853,7 +8853,7 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L13" t="n">
-        <v>39.92716966793144</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M13" t="n">
         <v>39.423506304455</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>58.43709896927001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K14" t="n">
-        <v>45.9406024180756</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L14" t="n">
         <v>26.70784276721304</v>
@@ -9005,7 +9005,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>50.24867586497897</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K15" t="n">
         <v>21.74077328296876</v>
@@ -9090,7 +9090,7 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L16" t="n">
-        <v>39.92716966793145</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M16" t="n">
         <v>39.423506304455</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>58.43709896927001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K20" t="n">
-        <v>45.9406024180756</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L20" t="n">
         <v>26.70784276721304</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>50.24867586497897</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K21" t="n">
         <v>21.74077328296876</v>
@@ -9564,7 +9564,7 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L22" t="n">
-        <v>39.92716966793145</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M22" t="n">
         <v>39.423506304455</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>58.43709896927001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K26" t="n">
-        <v>45.9406024180756</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L26" t="n">
         <v>26.70784276721304</v>
@@ -9953,7 +9953,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>50.24867586497897</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K27" t="n">
         <v>21.74077328296876</v>
@@ -10038,7 +10038,7 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L28" t="n">
-        <v>39.92716966793145</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M28" t="n">
         <v>39.423506304455</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>58.43709896927</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K41" t="n">
-        <v>45.94060241807557</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L41" t="n">
         <v>26.70784276721304</v>
@@ -11138,7 +11138,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>50.24867586497896</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K42" t="n">
         <v>21.74077328296876</v>
@@ -11223,7 +11223,7 @@
         <v>50.38157427046082</v>
       </c>
       <c r="L43" t="n">
-        <v>39.92716966793144</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M43" t="n">
         <v>39.423506304455</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>56.67388359071279</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K44" t="n">
-        <v>43.29799963205343</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L44" t="n">
-        <v>23.42946033622977</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07845776207048516</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>7.444062424199188</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P44" t="n">
-        <v>34.66855040599816</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.57035129496393</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>49.19851686474489</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K45" t="n">
-        <v>19.94588428470415</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.96903746155225</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11457,25 +11457,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>49.29890432238841</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L46" t="n">
-        <v>38.54172488461562</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M46" t="n">
-        <v>37.96274903414103</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N46" t="n">
-        <v>30.61135264374985</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O46" t="n">
-        <v>44.94563446009283</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P46" t="n">
-        <v>54.10304937057823</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.07942938682525</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.8775299427027</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H44" t="n">
-        <v>318.5818624941939</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I44" t="n">
-        <v>130.0145480249957</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>22.80641949262572</v>
+        <v>24.11139986669068</v>
       </c>
       <c r="S44" t="n">
-        <v>161.0785017067238</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T44" t="n">
-        <v>217.451495037231</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2512495841338</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25958,13 +25958,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.8711667667984</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H45" t="n">
-        <v>93.43301327021632</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I45" t="n">
-        <v>48.07180258983779</v>
+        <v>48.45450293577519</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.79343295775172</v>
+        <v>24.48356112298609</v>
       </c>
       <c r="S45" t="n">
-        <v>140.6830966349982</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T45" t="n">
-        <v>184.500558474939</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2723413059526</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26037,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7526418755993</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H46" t="n">
-        <v>153.5298708932086</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I46" t="n">
-        <v>128.3889788086381</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J46" t="n">
-        <v>25.66848079476623</v>
+        <v>26.32731680307289</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>126.5380249303701</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S46" t="n">
-        <v>203.2440097791736</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T46" t="n">
-        <v>228.8051876796806</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U46" t="n">
-        <v>284.292269337415</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>298661.9895570512</v>
+        <v>298646.9746479942</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54446.98812710022</v>
+        <v>54446.98812710023</v>
       </c>
       <c r="C2" t="n">
         <v>54446.98812710022</v>
@@ -26328,34 +26328,34 @@
         <v>59732.13272365865</v>
       </c>
       <c r="G2" t="n">
-        <v>59732.13272365864</v>
+        <v>59732.13272365866</v>
       </c>
       <c r="H2" t="n">
-        <v>59732.13272365865</v>
+        <v>59732.13272365866</v>
       </c>
       <c r="I2" t="n">
-        <v>59732.13272365864</v>
+        <v>59732.13272365866</v>
       </c>
       <c r="J2" t="n">
-        <v>59732.13272365865</v>
+        <v>59732.13272365866</v>
       </c>
       <c r="K2" t="n">
-        <v>59732.13272365864</v>
+        <v>59732.13272365866</v>
       </c>
       <c r="L2" t="n">
         <v>59732.13272365866</v>
       </c>
       <c r="M2" t="n">
-        <v>59732.13272365865</v>
+        <v>59732.13272365866</v>
       </c>
       <c r="N2" t="n">
-        <v>59732.13272365865</v>
+        <v>59732.13272365866</v>
       </c>
       <c r="O2" t="n">
         <v>59732.13272365865</v>
       </c>
       <c r="P2" t="n">
-        <v>59831.77443771367</v>
+        <v>59732.13272365864</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3439.479431522153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,37 +26429,37 @@
         <v>9941.666483644129</v>
       </c>
       <c r="F4" t="n">
-        <v>9941.66648364413</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="G4" t="n">
-        <v>9941.666483644129</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="H4" t="n">
-        <v>9941.66648364413</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="I4" t="n">
-        <v>9941.666483644129</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="J4" t="n">
-        <v>9941.66648364413</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="K4" t="n">
-        <v>9941.666483644129</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="L4" t="n">
-        <v>9941.666483644129</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="M4" t="n">
-        <v>9941.666483644129</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="N4" t="n">
-        <v>9941.666483644129</v>
+        <v>9941.666483644127</v>
       </c>
       <c r="O4" t="n">
         <v>9941.666483644129</v>
       </c>
       <c r="P4" t="n">
-        <v>9475.079774768723</v>
+        <v>9941.666483644127</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>5664.83333264658</v>
       </c>
       <c r="P5" t="n">
-        <v>5777.488614097808</v>
+        <v>5664.83333264658</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20015.85296822494</v>
+        <v>-34669.20546998779</v>
       </c>
       <c r="C6" t="n">
-        <v>-20015.85296822494</v>
+        <v>-34669.20546998781</v>
       </c>
       <c r="D6" t="n">
-        <v>-20015.85296822494</v>
+        <v>-34669.20546998781</v>
       </c>
       <c r="E6" t="n">
-        <v>-164642.4447966807</v>
+        <v>-178855.3685820637</v>
       </c>
       <c r="F6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198495</v>
       </c>
       <c r="G6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198496</v>
       </c>
       <c r="H6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198496</v>
       </c>
       <c r="I6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198496</v>
       </c>
       <c r="J6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198496</v>
       </c>
       <c r="K6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198496</v>
       </c>
       <c r="L6" t="n">
-        <v>44125.63290736795</v>
+        <v>29912.70912198496</v>
       </c>
       <c r="M6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198496</v>
       </c>
       <c r="N6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198496</v>
       </c>
       <c r="O6" t="n">
-        <v>44125.63290736794</v>
+        <v>29912.70912198495</v>
       </c>
       <c r="P6" t="n">
-        <v>41139.72661732499</v>
+        <v>29912.70912198495</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>259.8547400296596</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0224134907251</v>
+        <v>259.8547400296596</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.167673461065533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31761,7 +31761,7 @@
         <v>40.2735672964561</v>
       </c>
       <c r="J11" t="n">
-        <v>88.66269845866263</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K11" t="n">
         <v>132.8824015559711</v>
@@ -31788,13 +31788,13 @@
         <v>65.62050377241451</v>
       </c>
       <c r="S11" t="n">
-        <v>23.80478347105878</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T11" t="n">
         <v>4.572921103436522</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>19.24395952106442</v>
       </c>
       <c r="J12" t="n">
-        <v>52.80689580168773</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K12" t="n">
         <v>90.25539588369791</v>
@@ -31867,13 +31867,13 @@
         <v>34.70286509301758</v>
       </c>
       <c r="S12" t="n">
-        <v>10.38193230212838</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T12" t="n">
         <v>2.252891566860916</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.4685905148075829</v>
       </c>
       <c r="H13" t="n">
-        <v>4.166195668016512</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I13" t="n">
         <v>14.09179475439532</v>
@@ -31922,10 +31922,10 @@
         <v>33.12934939689611</v>
       </c>
       <c r="K13" t="n">
-        <v>54.44169799309917</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L13" t="n">
-        <v>69.66662981057466</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M13" t="n">
         <v>73.4536931529741</v>
@@ -31946,7 +31946,7 @@
         <v>21.06953351125731</v>
       </c>
       <c r="S13" t="n">
-        <v>8.166254698964874</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T13" t="n">
         <v>2.002159472359672</v>
@@ -31998,7 +31998,7 @@
         <v>40.2735672964561</v>
       </c>
       <c r="J14" t="n">
-        <v>88.66269845866262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K14" t="n">
         <v>132.8824015559711</v>
@@ -32025,13 +32025,13 @@
         <v>65.62050377241451</v>
       </c>
       <c r="S14" t="n">
-        <v>23.80478347105877</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T14" t="n">
         <v>4.572921103436522</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0835713736778804</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>19.24395952106442</v>
       </c>
       <c r="J15" t="n">
-        <v>52.80689580168772</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K15" t="n">
         <v>90.25539588369791</v>
@@ -32104,13 +32104,13 @@
         <v>34.70286509301758</v>
       </c>
       <c r="S15" t="n">
-        <v>10.38193230212837</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T15" t="n">
         <v>2.252891566860916</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03677189717400845</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0.4685905148075829</v>
       </c>
       <c r="H16" t="n">
-        <v>4.166195668016513</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I16" t="n">
         <v>14.09179475439532</v>
@@ -32159,10 +32159,10 @@
         <v>33.12934939689611</v>
       </c>
       <c r="K16" t="n">
-        <v>54.44169799309916</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L16" t="n">
-        <v>69.66662981057465</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M16" t="n">
         <v>73.4536931529741</v>
@@ -32183,7 +32183,7 @@
         <v>21.06953351125731</v>
       </c>
       <c r="S16" t="n">
-        <v>8.166254698964872</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T16" t="n">
         <v>2.002159472359672</v>
@@ -32472,7 +32472,7 @@
         <v>40.2735672964561</v>
       </c>
       <c r="J20" t="n">
-        <v>88.66269845866262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K20" t="n">
         <v>132.8824015559711</v>
@@ -32499,13 +32499,13 @@
         <v>65.62050377241451</v>
       </c>
       <c r="S20" t="n">
-        <v>23.80478347105877</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T20" t="n">
         <v>4.572921103436522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0835713736778804</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,7 +32551,7 @@
         <v>19.24395952106442</v>
       </c>
       <c r="J21" t="n">
-        <v>52.80689580168772</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K21" t="n">
         <v>90.25539588369791</v>
@@ -32578,13 +32578,13 @@
         <v>34.70286509301758</v>
       </c>
       <c r="S21" t="n">
-        <v>10.38193230212837</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T21" t="n">
         <v>2.252891566860916</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03677189717400845</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,7 +32624,7 @@
         <v>0.4685905148075829</v>
       </c>
       <c r="H22" t="n">
-        <v>4.166195668016513</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I22" t="n">
         <v>14.09179475439532</v>
@@ -32633,10 +32633,10 @@
         <v>33.12934939689611</v>
       </c>
       <c r="K22" t="n">
-        <v>54.44169799309916</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L22" t="n">
-        <v>69.66662981057465</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M22" t="n">
         <v>73.4536931529741</v>
@@ -32657,7 +32657,7 @@
         <v>21.06953351125731</v>
       </c>
       <c r="S22" t="n">
-        <v>8.166254698964872</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T22" t="n">
         <v>2.002159472359672</v>
@@ -32946,7 +32946,7 @@
         <v>40.2735672964561</v>
       </c>
       <c r="J26" t="n">
-        <v>88.66269845866262</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K26" t="n">
         <v>132.8824015559711</v>
@@ -32973,13 +32973,13 @@
         <v>65.62050377241451</v>
       </c>
       <c r="S26" t="n">
-        <v>23.80478347105877</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T26" t="n">
         <v>4.572921103436522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0835713736778804</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>19.24395952106442</v>
       </c>
       <c r="J27" t="n">
-        <v>52.80689580168772</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K27" t="n">
         <v>90.25539588369791</v>
@@ -33052,13 +33052,13 @@
         <v>34.70286509301758</v>
       </c>
       <c r="S27" t="n">
-        <v>10.38193230212837</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T27" t="n">
         <v>2.252891566860916</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03677189717400845</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0.4685905148075829</v>
       </c>
       <c r="H28" t="n">
-        <v>4.166195668016513</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I28" t="n">
         <v>14.09179475439532</v>
@@ -33107,10 +33107,10 @@
         <v>33.12934939689611</v>
       </c>
       <c r="K28" t="n">
-        <v>54.44169799309916</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L28" t="n">
-        <v>69.66662981057465</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M28" t="n">
         <v>73.4536931529741</v>
@@ -33131,7 +33131,7 @@
         <v>21.06953351125731</v>
       </c>
       <c r="S28" t="n">
-        <v>8.166254698964872</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T28" t="n">
         <v>2.002159472359672</v>
@@ -34131,7 +34131,7 @@
         <v>40.2735672964561</v>
       </c>
       <c r="J41" t="n">
-        <v>88.66269845866263</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K41" t="n">
         <v>132.8824015559711</v>
@@ -34158,13 +34158,13 @@
         <v>65.62050377241451</v>
       </c>
       <c r="S41" t="n">
-        <v>23.80478347105878</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T41" t="n">
         <v>4.572921103436522</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>19.24395952106442</v>
       </c>
       <c r="J42" t="n">
-        <v>52.80689580168773</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K42" t="n">
         <v>90.25539588369791</v>
@@ -34237,13 +34237,13 @@
         <v>34.70286509301758</v>
       </c>
       <c r="S42" t="n">
-        <v>10.38193230212838</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T42" t="n">
         <v>2.252891566860916</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,7 +34283,7 @@
         <v>0.4685905148075829</v>
       </c>
       <c r="H43" t="n">
-        <v>4.166195668016512</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I43" t="n">
         <v>14.09179475439532</v>
@@ -34292,10 +34292,10 @@
         <v>33.12934939689611</v>
       </c>
       <c r="K43" t="n">
-        <v>54.44169799309917</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L43" t="n">
-        <v>69.66662981057466</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M43" t="n">
         <v>73.4536931529741</v>
@@ -34316,7 +34316,7 @@
         <v>21.06953351125731</v>
       </c>
       <c r="S43" t="n">
-        <v>8.166254698964874</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T43" t="n">
         <v>2.002159472359672</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.065416737651155</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H44" t="n">
-        <v>10.9111991644699</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I44" t="n">
-        <v>41.07447877829621</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J44" t="n">
-        <v>90.42591383721984</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K44" t="n">
-        <v>135.5250043419933</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L44" t="n">
-        <v>168.1307518268848</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M44" t="n">
-        <v>187.0778567350886</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N44" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>179.5107343559213</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P44" t="n">
-        <v>153.2082586451583</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.0530217280263</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R44" t="n">
-        <v>66.92548414647946</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S44" t="n">
-        <v>24.27818390922573</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T44" t="n">
-        <v>4.663861769067936</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08523333901209243</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5700482101498616</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H45" t="n">
-        <v>5.505465608552612</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I45" t="n">
-        <v>19.62665986700182</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J45" t="n">
-        <v>53.85705480192181</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K45" t="n">
-        <v>92.05028488196253</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L45" t="n">
         <v>112.5754335711478</v>
@@ -34465,22 +34465,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.76615398334025</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R45" t="n">
-        <v>35.39299325825195</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S45" t="n">
-        <v>10.58839548238887</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T45" t="n">
-        <v>2.297694320735626</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03750317172038565</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4779092702291765</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H46" t="n">
-        <v>4.249047875310318</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I46" t="n">
-        <v>14.37203514471015</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J46" t="n">
-        <v>33.78818540520277</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K46" t="n">
-        <v>55.52436794117158</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L46" t="n">
-        <v>71.05207459389048</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M46" t="n">
-        <v>74.91445042328807</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N46" t="n">
-        <v>73.13315223425211</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O46" t="n">
-        <v>67.55030303202943</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P46" t="n">
-        <v>57.80095391935419</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.0183844370995</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R46" t="n">
-        <v>21.48853864139551</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S46" t="n">
-        <v>8.328655191175736</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T46" t="n">
-        <v>2.04197597279739</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02606777837613693</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
